--- a/External Data/reports/2019_termination_data.xlsx
+++ b/External Data/reports/2019_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E05266-C151-45CD-AB0D-A6F9E522025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19154E-90B3-44B7-A9D3-2769BBF23099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_age" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="2019_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2019_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2019_county" sheetId="10" r:id="rId10"/>
-    <sheet name="2019_procedure_location_wrksht" sheetId="12" r:id="rId11"/>
-    <sheet name="2019_gestation_weeks" sheetId="11" r:id="rId12"/>
+    <sheet name="2019_monthly" sheetId="13" r:id="rId11"/>
+    <sheet name="2019_procedure_location_wrksht" sheetId="12" r:id="rId12"/>
+    <sheet name="2019_gestation_weeks" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="200">
   <si>
     <t>Age, years</t>
   </si>
@@ -533,6 +534,117 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;= 21 </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>IN Resident</t>
+  </si>
+  <si>
+    <t>Nonâ€Resident</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>675 (8.84%)</t>
+  </si>
+  <si>
+    <t>61 (.80%)</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>622 (8.14%)</t>
+  </si>
+  <si>
+    <t>72 (.94%)</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>646 (8.46%)</t>
+  </si>
+  <si>
+    <t>86 (1.13%)</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>578 (7.57%)</t>
+  </si>
+  <si>
+    <t>71 (.93%)</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>668 (8.75%)</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>504 (6.60%)</t>
+  </si>
+  <si>
+    <t>42 (.55%)</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>561 (7.35%)</t>
+  </si>
+  <si>
+    <t>39 (.51%)</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>634 (8.30%)</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>468 (6.13%)</t>
+  </si>
+  <si>
+    <t>35 (.46%)</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>556 (7.28%)</t>
+  </si>
+  <si>
+    <t>43 (.56%)</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>596 (7.80%)</t>
+  </si>
+  <si>
+    <t>33 (.43%)</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>511 (6.69%)</t>
+  </si>
+  <si>
+    <t>26 (.34%)</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1133,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1032,7 +1144,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1399,12 +1510,12 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1415,102 +1526,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>18</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>205</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>2.68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>563</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>7.37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2324</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>30.43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2168</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>28.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>1354</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>17.73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>745</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>9.76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>237</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>3.19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>0.3</v>
       </c>
     </row>
@@ -1528,9 +1639,9 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1550,7 +1661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1570,7 +1681,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1590,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1610,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1630,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -1650,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1670,7 +1781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1690,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1710,7 +1821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1730,7 +1841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1750,7 +1861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1770,7 +1881,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1790,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -1810,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -1830,7 +1941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -1850,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1870,7 +1981,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1890,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1910,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -1930,7 +2041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1950,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -1970,7 +2081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -1990,7 +2101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -2010,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -2030,7 +2141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2050,7 +2161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2070,7 +2181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2090,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2110,7 +2221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2130,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -2156,6 +2267,164 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE9370-27EA-44DC-94C9-B28100D1EBB8}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DD4962-B9B9-4543-87CF-F11BB2D2B507}">
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -2163,13 +2432,13 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2177,7 +2446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2196,7 +2465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2228,7 +2497,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2526,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2289,7 +2558,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2306,7 +2575,7 @@
         <v>17.97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2331,7 +2600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -2348,7 +2617,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -2365,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B11">
         <f>SUM(B3:B10)</f>
         <v>3346</v>
@@ -2375,7 +2644,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2386,7 +2655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2399,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2412,7 +2681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B19">
         <f t="shared" ref="B19:C19" si="0">SUM(B16:B18)</f>
         <v>7585</v>
@@ -2431,7 +2700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D1AF9D-3B67-4607-8825-9D940F0DD67D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -2439,214 +2708,214 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.15712976299594081</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>5.2376587665313608</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>1511</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>19.785255990572214</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
         <v>1664</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>21.788660468770459</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>1350</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>17.677098337043343</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7">
         <v>1044</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>13.67028938064685</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
         <v>535</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7.0053686002356947</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9">
         <v>397</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>5.198376325782375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10">
         <v>391</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>5.1198114442844052</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
         <v>293</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3.8365850464842213</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>5.2376587665313605E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>6.5470734581642001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>3.9282440748985202E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>6.5470734581642001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2.6188293832656803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>19</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>0.10475317533062721</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>9.1659028414298807E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>21</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>7.8564881497970404E-2</v>
       </c>
     </row>
@@ -2663,12 +2932,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2679,91 +2948,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
         <v>4055</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>53.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>2432</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>31.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
         <v>266</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>3.48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
         <v>67</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
         <v>776</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>10.16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>0.24</v>
       </c>
     </row>
@@ -2780,12 +3049,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2796,36 +3065,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
         <v>6909</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>90.48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>691</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
         <v>36</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>0.47</v>
       </c>
     </row>
@@ -2842,12 +3111,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2858,102 +3127,102 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2">
         <v>75</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>605</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>7.92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>2707</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>2041</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>26.73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>774</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>1106</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>14.48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>213</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>2.79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9">
         <v>35</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>0.46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>81</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>1.06</v>
       </c>
     </row>
@@ -2967,16 +3236,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -2998,7 +3267,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -3023,13 +3292,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3043,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3053,11 +3322,11 @@
       <c r="C2">
         <v>994</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>13.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3067,11 +3336,11 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3081,11 +3350,11 @@
       <c r="C4">
         <v>816</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>10.68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3095,11 +3364,11 @@
       <c r="C5" s="2">
         <v>2584</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>33.840000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3109,11 +3378,11 @@
       <c r="C6" s="2">
         <v>1279</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>16.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3123,11 +3392,11 @@
       <c r="C7">
         <v>1754</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>22.97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3137,11 +3406,11 @@
       <c r="C8">
         <v>138</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>1.81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -3151,11 +3420,11 @@
       <c r="C9">
         <v>34</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3165,11 +3434,11 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3179,11 +3448,11 @@
       <c r="C11">
         <v>17</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C19" s="5"/>
     </row>
   </sheetData>
@@ -3199,14 +3468,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3220,7 +3489,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3231,7 +3500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3242,7 +3511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C17" s="5"/>
     </row>
   </sheetData>
@@ -3258,13 +3527,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
@@ -3275,47 +3544,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B2">
         <v>4937</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>64.64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B3">
         <v>2660</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>34.83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B4" s="2">
         <v>34</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.08</v>
       </c>
     </row>
@@ -3330,7 +3599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
@@ -3341,20 +3610,20 @@
     <col min="7" max="7" width="9.54296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>

--- a/External Data/reports/2019_termination_data.xlsx
+++ b/External Data/reports/2019_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19154E-90B3-44B7-A9D3-2769BBF23099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB02B162-58CF-410D-9995-4863B7A62A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" tabRatio="821" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_age" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2019_monthly" sheetId="13" r:id="rId11"/>
     <sheet name="2019_procedure_location_wrksht" sheetId="12" r:id="rId12"/>
     <sheet name="2019_gestation_weeks" sheetId="11" r:id="rId13"/>
+    <sheet name="2019_non_res" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="206">
   <si>
     <t>Age, years</t>
   </si>
@@ -645,6 +646,24 @@
   </si>
   <si>
     <t>26 (.34%)</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>abortions</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE9370-27EA-44DC-94C9-B28100D1EBB8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2917,6 +2936,77 @@
       </c>
       <c r="C19" s="9">
         <v>7.8564881497970404E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2A9DA4-CF71-4D41-9CDA-9716BC618EB7}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
